--- a/Homework 04/Answer_1.xlsx
+++ b/Homework 04/Answer_1.xlsx
@@ -9,8 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Answer 1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Answer 2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Draft" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Draft" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -292,7 +291,7 @@
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -312,6 +311,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
     </font>
     <font>
@@ -522,9 +527,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>1567800</xdr:colOff>
+      <xdr:colOff>1567440</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -534,7 +539,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1872000"/>
-          <a:ext cx="46746720" cy="9129600"/>
+          <a:ext cx="46799640" cy="9129240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,7 +578,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>There are two tables in 1NF :</a:t>
@@ -815,7 +820,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>2NF :</a:t>
@@ -993,7 +998,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1600" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>3NF:</a:t>
@@ -1238,9 +1243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1167840</xdr:colOff>
+      <xdr:colOff>1167480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1250,7 +1255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="127800" y="4880160"/>
-          <a:ext cx="6008040" cy="3833640"/>
+          <a:ext cx="6013440" cy="3833280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1321,9 +1326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>339840</xdr:colOff>
+      <xdr:colOff>339480</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1332,8 +1337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6624360" y="6667920"/>
-          <a:ext cx="6963840" cy="2844360"/>
+          <a:off x="6632280" y="6667920"/>
+          <a:ext cx="6971040" cy="2844000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1425,7 +1430,7 @@
       <selection pane="topLeft" activeCell="AK31" activeCellId="0" sqref="AK31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5436,36 +5441,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I49" activeCellId="0" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="23.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="25.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
